--- a/docs/StructureDefinition-BRRequisicaoRegulacaoAssistencial.xlsx
+++ b/docs/StructureDefinition-BRRequisicaoRegulacaoAssistencial.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (http://www.saude.gov.br)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -285,6 +285,9 @@
     <t>ServiceRequest.id</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -304,9 +307,6 @@
     <t>Resource.id</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>ServiceRequest.meta</t>
   </si>
   <si>
@@ -629,7 +629,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>required</t>
@@ -1752,7 +1752,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
@@ -1786,7 +1786,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -1880,7 +1880,7 @@
     <t>One or more specimens that the laboratory procedure will use.</t>
   </si>
   <si>
-    <t>Many diagnostic procedures need a specimen, but the request itself is not actually about the specimen. This element is for when the diagnostic is requested on already existing specimens and the request points to the specimen it applies to.    Conversely, if the request is entered first with an unknown specimen, then the [Specimen](specimen.html) resource points to the ServiceRequest.</t>
+    <t>Many diagnostic procedures need a specimen, but the request itself is not actually about the specimen. This element is for when the diagnostic is requested on already existing specimens and the request points to the specimen it applies to.    Conversely, if the request is entered first with an unknown specimen, then the [Specimen](http://hl7.org/fhir/R4/specimen.html) resource points to the ServiceRequest.</t>
   </si>
   <si>
     <t>SPM</t>
@@ -2288,17 +2288,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="47.390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="42.984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.49609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.49609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.09375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="41.37890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.17578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="81.33984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2307,27 +2307,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="122.203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="77.29296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="36.22265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="116.9453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="73.33984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="28.03515625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="82.15234375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="158.23046875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="59.3671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="78.2890625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="151.9140625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.4453125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="59.31640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2586,7 +2586,7 @@
         <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>80</v>
@@ -2595,19 +2595,19 @@
         <v>80</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2657,13 +2657,13 @@
         <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>80</v>
@@ -2703,7 +2703,7 @@
         <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>80</v>
@@ -2712,7 +2712,7 @@
         <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>97</v>
@@ -2778,7 +2778,7 @@
         <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>80</v>
@@ -2824,10 +2824,10 @@
         <v>80</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>103</v>
@@ -2895,7 +2895,7 @@
         <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>80</v>
@@ -3012,7 +3012,7 @@
         <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>80</v>
@@ -3052,7 +3052,7 @@
         <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>80</v>
@@ -3129,7 +3129,7 @@
         <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>80</v>
@@ -3409,7 +3409,7 @@
         <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>80</v>
@@ -3531,7 +3531,7 @@
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>147</v>
@@ -3648,7 +3648,7 @@
         <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>157</v>
@@ -3765,7 +3765,7 @@
         <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>103</v>
@@ -3882,7 +3882,7 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>171</v>
@@ -3997,7 +3997,7 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>179</v>
@@ -4112,7 +4112,7 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>147</v>
@@ -4182,7 +4182,7 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>80</v>
@@ -4219,19 +4219,19 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>109</v>
@@ -4294,10 +4294,10 @@
         <v>194</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>80</v>
@@ -4334,19 +4334,19 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>109</v>
@@ -4409,10 +4409,10 @@
         <v>205</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>80</v>
@@ -4449,10 +4449,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
@@ -4461,7 +4461,7 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>214</v>
@@ -4646,7 +4646,7 @@
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
@@ -4800,10 +4800,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4812,7 +4812,7 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>235</v>
@@ -4997,7 +4997,7 @@
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
@@ -5151,10 +5151,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -5163,7 +5163,7 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>103</v>
@@ -5233,7 +5233,7 @@
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
@@ -5273,7 +5273,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -5282,7 +5282,7 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>223</v>
@@ -5350,7 +5350,7 @@
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
@@ -5387,10 +5387,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -5399,7 +5399,7 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>109</v>
@@ -5467,7 +5467,7 @@
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
@@ -5507,7 +5507,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -5516,7 +5516,7 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>223</v>
@@ -5584,7 +5584,7 @@
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>80</v>
@@ -5633,7 +5633,7 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>275</v>
@@ -5703,7 +5703,7 @@
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
@@ -5752,7 +5752,7 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>223</v>
@@ -5822,7 +5822,7 @@
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
@@ -5859,10 +5859,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5871,7 +5871,7 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>109</v>
@@ -5939,7 +5939,7 @@
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
@@ -5985,10 +5985,10 @@
         <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>275</v>
@@ -6060,7 +6060,7 @@
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
@@ -6097,10 +6097,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -6109,7 +6109,7 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>214</v>
@@ -6177,7 +6177,7 @@
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
@@ -6292,7 +6292,7 @@
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
@@ -6446,10 +6446,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6458,7 +6458,7 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>235</v>
@@ -6643,7 +6643,7 @@
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
@@ -6797,10 +6797,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6809,7 +6809,7 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>103</v>
@@ -6879,7 +6879,7 @@
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
@@ -6919,7 +6919,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6928,7 +6928,7 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>223</v>
@@ -6996,7 +6996,7 @@
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
@@ -7033,10 +7033,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -7045,7 +7045,7 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>109</v>
@@ -7113,7 +7113,7 @@
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
@@ -7153,7 +7153,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -7162,7 +7162,7 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>223</v>
@@ -7230,7 +7230,7 @@
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
@@ -7279,7 +7279,7 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>275</v>
@@ -7349,7 +7349,7 @@
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
@@ -7398,7 +7398,7 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>223</v>
@@ -7468,7 +7468,7 @@
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
@@ -7517,7 +7517,7 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>214</v>
@@ -7634,7 +7634,7 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>343</v>
@@ -7702,7 +7702,7 @@
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
@@ -7739,10 +7739,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -7751,7 +7751,7 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>349</v>
@@ -7814,10 +7814,10 @@
         <v>348</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>80</v>
@@ -7932,7 +7932,7 @@
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
@@ -8098,7 +8098,7 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>223</v>
@@ -8166,7 +8166,7 @@
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>364</v>
@@ -8215,7 +8215,7 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>103</v>
@@ -8283,7 +8283,7 @@
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
@@ -8320,10 +8320,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -8332,7 +8332,7 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>147</v>
@@ -8400,7 +8400,7 @@
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
@@ -8515,7 +8515,7 @@
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
@@ -8678,10 +8678,10 @@
         <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>109</v>
@@ -8751,7 +8751,7 @@
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
@@ -8800,7 +8800,7 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>214</v>
@@ -8870,7 +8870,7 @@
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
@@ -8907,10 +8907,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8919,7 +8919,7 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>103</v>
@@ -8989,7 +8989,7 @@
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
@@ -9026,10 +9026,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -9038,7 +9038,7 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>223</v>
@@ -9106,7 +9106,7 @@
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
@@ -9155,7 +9155,7 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>416</v>
@@ -9221,7 +9221,7 @@
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
@@ -9270,7 +9270,7 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>423</v>
@@ -9338,7 +9338,7 @@
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
@@ -9387,7 +9387,7 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>223</v>
@@ -9455,7 +9455,7 @@
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
@@ -9504,7 +9504,7 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>437</v>
@@ -9570,7 +9570,7 @@
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
@@ -9610,7 +9610,7 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -9619,7 +9619,7 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>447</v>
@@ -9685,7 +9685,7 @@
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>80</v>
@@ -9800,7 +9800,7 @@
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>80</v>
@@ -9957,7 +9957,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>80</v>
@@ -10032,7 +10032,7 @@
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>80</v>
@@ -10081,7 +10081,7 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>464</v>
@@ -10147,7 +10147,7 @@
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>80</v>
@@ -10184,10 +10184,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>80</v>
@@ -10196,7 +10196,7 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>447</v>
@@ -10262,7 +10262,7 @@
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>80</v>
@@ -10299,10 +10299,10 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>80</v>
@@ -10311,7 +10311,7 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>482</v>
@@ -10379,7 +10379,7 @@
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>80</v>
@@ -10494,7 +10494,7 @@
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>80</v>
@@ -10660,7 +10660,7 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>223</v>
@@ -10728,7 +10728,7 @@
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>364</v>
@@ -10777,7 +10777,7 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>103</v>
@@ -10845,7 +10845,7 @@
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>80</v>
@@ -10882,10 +10882,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -10894,7 +10894,7 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>147</v>
@@ -10962,7 +10962,7 @@
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>80</v>
@@ -11077,7 +11077,7 @@
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>80</v>
@@ -11240,10 +11240,10 @@
         <v>80</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>109</v>
@@ -11313,7 +11313,7 @@
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>80</v>
@@ -11362,7 +11362,7 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>214</v>
@@ -11432,7 +11432,7 @@
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>80</v>
@@ -11469,10 +11469,10 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>80</v>
@@ -11481,7 +11481,7 @@
         <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>103</v>
@@ -11551,7 +11551,7 @@
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>80</v>
@@ -11588,10 +11588,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>80</v>
@@ -11600,7 +11600,7 @@
         <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>223</v>
@@ -11668,7 +11668,7 @@
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>80</v>
@@ -11717,7 +11717,7 @@
         <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>416</v>
@@ -11783,7 +11783,7 @@
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>80</v>
@@ -11832,7 +11832,7 @@
         <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>423</v>
@@ -11900,7 +11900,7 @@
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>80</v>
@@ -11949,7 +11949,7 @@
         <v>80</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>223</v>
@@ -12017,7 +12017,7 @@
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>80</v>
@@ -12057,7 +12057,7 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>80</v>
@@ -12066,7 +12066,7 @@
         <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>214</v>
@@ -12134,7 +12134,7 @@
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>80</v>
@@ -12249,7 +12249,7 @@
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>80</v>
@@ -12403,10 +12403,10 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>80</v>
@@ -12415,7 +12415,7 @@
         <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>235</v>
@@ -12600,7 +12600,7 @@
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>80</v>
@@ -12754,10 +12754,10 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>80</v>
@@ -12766,7 +12766,7 @@
         <v>80</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>103</v>
@@ -12836,7 +12836,7 @@
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>80</v>
@@ -12876,7 +12876,7 @@
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>80</v>
@@ -12885,7 +12885,7 @@
         <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>223</v>
@@ -12953,7 +12953,7 @@
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>80</v>
@@ -12990,10 +12990,10 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>80</v>
@@ -13002,7 +13002,7 @@
         <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>109</v>
@@ -13070,7 +13070,7 @@
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>80</v>
@@ -13110,7 +13110,7 @@
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>80</v>
@@ -13119,7 +13119,7 @@
         <v>80</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>223</v>
@@ -13187,7 +13187,7 @@
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>80</v>
@@ -13236,7 +13236,7 @@
         <v>80</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>275</v>
@@ -13306,7 +13306,7 @@
         <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>80</v>
@@ -13355,7 +13355,7 @@
         <v>80</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>223</v>
@@ -13425,7 +13425,7 @@
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>80</v>
@@ -13465,7 +13465,7 @@
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>80</v>
@@ -13474,7 +13474,7 @@
         <v>80</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>482</v>
@@ -13657,7 +13657,7 @@
         <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>80</v>
@@ -13823,7 +13823,7 @@
         <v>80</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>223</v>
@@ -13891,7 +13891,7 @@
         <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>364</v>
@@ -13940,7 +13940,7 @@
         <v>80</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>103</v>
@@ -14008,7 +14008,7 @@
         <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>80</v>
@@ -14045,10 +14045,10 @@
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>80</v>
@@ -14057,7 +14057,7 @@
         <v>80</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>147</v>
@@ -14125,7 +14125,7 @@
         <v>78</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>80</v>
@@ -14240,7 +14240,7 @@
         <v>78</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>80</v>
@@ -14403,10 +14403,10 @@
         <v>80</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>109</v>
@@ -14476,7 +14476,7 @@
         <v>78</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>80</v>
@@ -14525,7 +14525,7 @@
         <v>80</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>214</v>
@@ -14595,7 +14595,7 @@
         <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>80</v>
@@ -14632,10 +14632,10 @@
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>80</v>
@@ -14644,7 +14644,7 @@
         <v>80</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>103</v>
@@ -14714,7 +14714,7 @@
         <v>78</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>80</v>
@@ -14751,10 +14751,10 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>80</v>
@@ -14763,7 +14763,7 @@
         <v>80</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K107" t="s" s="2">
         <v>223</v>
@@ -14831,7 +14831,7 @@
         <v>78</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>80</v>
@@ -14880,7 +14880,7 @@
         <v>80</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>416</v>
@@ -14946,7 +14946,7 @@
         <v>78</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>80</v>
@@ -14995,7 +14995,7 @@
         <v>80</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K109" t="s" s="2">
         <v>423</v>
@@ -15063,7 +15063,7 @@
         <v>78</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>80</v>
@@ -15112,7 +15112,7 @@
         <v>80</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K110" t="s" s="2">
         <v>223</v>
@@ -15180,7 +15180,7 @@
         <v>78</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>80</v>
@@ -15229,7 +15229,7 @@
         <v>80</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K111" t="s" s="2">
         <v>214</v>
@@ -15344,7 +15344,7 @@
         <v>80</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K112" t="s" s="2">
         <v>556</v>
@@ -15459,7 +15459,7 @@
         <v>80</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>214</v>
@@ -15564,10 +15564,10 @@
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>80</v>
@@ -15576,7 +15576,7 @@
         <v>80</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>570</v>
@@ -15759,7 +15759,7 @@
         <v>78</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>80</v>
@@ -15913,10 +15913,10 @@
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>80</v>
@@ -15925,7 +15925,7 @@
         <v>80</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>223</v>
@@ -15993,7 +15993,7 @@
         <v>78</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>364</v>
@@ -16042,7 +16042,7 @@
         <v>80</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>103</v>
@@ -16110,7 +16110,7 @@
         <v>78</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>80</v>
@@ -16159,7 +16159,7 @@
         <v>80</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>147</v>
@@ -16227,7 +16227,7 @@
         <v>78</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>80</v>
@@ -16276,7 +16276,7 @@
         <v>80</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K120" t="s" s="2">
         <v>223</v>
@@ -16344,7 +16344,7 @@
         <v>78</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>80</v>
@@ -16625,7 +16625,7 @@
         <v>80</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>600</v>
@@ -16742,7 +16742,7 @@
         <v>80</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K124" t="s" s="2">
         <v>214</v>
@@ -16976,7 +16976,7 @@
         <v>80</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K126" t="s" s="2">
         <v>223</v>
@@ -17042,7 +17042,7 @@
         <v>78</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>80</v>

--- a/docs/StructureDefinition-BRRequisicaoRegulacaoAssistencial.xlsx
+++ b/docs/StructureDefinition-BRRequisicaoRegulacaoAssistencial.xlsx
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>null (http://www.saude.gov.br)</t>
+    <t>Ministério da Saúde do Brasil (http://www.saude.gov.br)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
